--- a/Data/euro22_Petteri.xlsx
+++ b/Data/euro22_Petteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1A9CA-E7FC-4B20-8DBB-2BF3FC355429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D93EFE-2859-4726-8FD2-853D2DEFF9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -183,21 +183,6 @@
     <t>Ellen white</t>
   </si>
   <si>
-    <t>Katoto</t>
-  </si>
-  <si>
-    <t>Miedema</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>Mead</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>Tanska - Suomi</t>
   </si>
   <si>
@@ -214,6 +199,21 @@
   </si>
   <si>
     <t>Mestari</t>
+  </si>
+  <si>
+    <t>Ellen White</t>
+  </si>
+  <si>
+    <t>Marie-Antoinette Katoto</t>
+  </si>
+  <si>
+    <t>Vivianne Miedema</t>
+  </si>
+  <si>
+    <t>Esther Gonzalez</t>
+  </si>
+  <si>
+    <t>Beth Mead</t>
   </si>
 </sst>
 </file>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:H50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="E2" s="40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -956,7 +956,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N4" s="36" t="s">
         <v>18</v>
@@ -965,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1009,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O6" s="27" t="s">
         <v>9</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>11</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>41</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>6</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>9</v>
@@ -1724,7 +1724,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -1738,7 +1738,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37"/>

--- a/Data/euro22_Petteri.xlsx
+++ b/Data/euro22_Petteri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedu\Documents\GitHub\euro22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D93EFE-2859-4726-8FD2-853D2DEFF9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3327BCD-B10C-4A16-9DC7-9AF652A6C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="16215" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>-</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Jos allekirjoittaneen lottorivi sattuu osumaan, käytetään potti tyttöfutiksen tukemiseen</t>
-  </si>
-  <si>
-    <t>Ellen white</t>
   </si>
   <si>
     <t>Tanska - Suomi</t>
@@ -894,7 +891,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +921,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="E2" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -956,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="36" t="s">
         <v>18</v>
@@ -965,10 +962,10 @@
         <v>17</v>
       </c>
       <c r="Q4" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="36" t="s">
         <v>57</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1003,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="27" t="s">
         <v>9</v>
@@ -1047,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="26" t="s">
         <v>11</v>
@@ -1083,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>41</v>
@@ -1119,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>6</v>
@@ -1155,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>9</v>
@@ -1724,7 +1721,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -1738,7 +1735,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37"/>
